--- a/src/main/java/com/qa/hs/keyword/scenarios/hubspot_scenarios.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/hubspot_scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63not\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63not\IdeaProjects\KeyDrivenFramework\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>locator</t>
   </si>
@@ -44,9 +44,6 @@
     <t>id=password</t>
   </si>
   <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
     <t>id=loginBtn</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>naveenanimation20@gmail.com</t>
-  </si>
-  <si>
     <t>test step</t>
   </si>
   <si>
@@ -90,6 +84,18 @@
   </si>
   <si>
     <t>http://app.hubspot.com/login</t>
+  </si>
+  <si>
+    <t>imwasim322@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234test</t>
+  </si>
+  <si>
+    <t>verify sign up link</t>
+  </si>
+  <si>
+    <t>linkText=Sign up</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,7 +457,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -465,35 +471,35 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -502,12 +508,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -515,60 +521,100 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
